--- a/INTLINE/data/134/DEUSTATIS/Persons employed in wholesale trade.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Persons employed in wholesale trade.xlsx
@@ -12,11 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="67">
   <si>
-    <t>Persons employed in wholesale trade (measuring values and
-rates of change): Germany, months/quarters/half-years,
-economic activities</t>
+    <t>Persons employed in wholesale trade: Germany,
+months/quarters/half-years, economic activities</t>
   </si>
   <si>
     <t>Monthly statistics: wholesale and commission trade</t>
@@ -224,7 +223,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:38:14</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:16:18</t>
   </si>
 </sst>
 </file>
@@ -9409,7 +9408,7 @@
     <col min="1" max="1" width="31.61328125" style="7" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="true">
+    <row r="1" ht="30.0" customHeight="true">
       <c r="A1" t="s" s="8">
         <v>0</v>
       </c>
@@ -12662,7 +12661,7 @@
         <v>106.1</v>
       </c>
       <c r="LX9" t="n" s="10">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="LY9" t="n" s="10">
         <v>106.4</v>
@@ -12673,11 +12672,11 @@
       <c r="MA9" t="n" s="10">
         <v>106.6</v>
       </c>
-      <c r="MB9" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC9" t="s" s="10">
-        <v>51</v>
+      <c r="MB9" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="MC9" t="n" s="10">
+        <v>106.9</v>
       </c>
       <c r="MD9" t="s" s="10">
         <v>51</v>
@@ -13714,7 +13713,7 @@
         <v>1.0</v>
       </c>
       <c r="LX10" t="n" s="10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="LY10" t="n" s="10">
         <v>1.3</v>
@@ -13725,11 +13724,11 @@
       <c r="MA10" t="n" s="10">
         <v>2.4</v>
       </c>
-      <c r="MB10" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC10" t="s" s="10">
-        <v>51</v>
+      <c r="MB10" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="MC10" t="n" s="10">
+        <v>2.4</v>
       </c>
       <c r="MD10" t="s" s="10">
         <v>51</v>
@@ -14778,10 +14777,10 @@
         <v>57</v>
       </c>
       <c r="MB11" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC11" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD11" t="s" s="10">
         <v>51</v>
@@ -15830,10 +15829,10 @@
         <v>57</v>
       </c>
       <c r="MB12" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC12" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD12" t="s" s="10">
         <v>51</v>
@@ -16882,10 +16881,10 @@
         <v>57</v>
       </c>
       <c r="MB13" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC13" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD13" t="s" s="10">
         <v>51</v>
@@ -17934,10 +17933,10 @@
         <v>57</v>
       </c>
       <c r="MB14" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC14" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD14" t="s" s="10">
         <v>51</v>
@@ -18979,7 +18978,7 @@
         <v>100.3</v>
       </c>
       <c r="LX16" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="LY16" t="n" s="10">
         <v>99.4</v>
@@ -18990,11 +18989,11 @@
       <c r="MA16" t="n" s="10">
         <v>99.2</v>
       </c>
-      <c r="MB16" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC16" t="s" s="10">
-        <v>51</v>
+      <c r="MB16" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="MC16" t="n" s="10">
+        <v>100.7</v>
       </c>
       <c r="MD16" t="s" s="10">
         <v>51</v>
@@ -20031,7 +20030,7 @@
         <v>1.7</v>
       </c>
       <c r="LX17" t="n" s="10">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="LY17" t="n" s="10">
         <v>1.1</v>
@@ -20042,11 +20041,11 @@
       <c r="MA17" t="n" s="10">
         <v>0.7</v>
       </c>
-      <c r="MB17" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC17" t="s" s="10">
-        <v>51</v>
+      <c r="MB17" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="MC17" t="n" s="10">
+        <v>0.1</v>
       </c>
       <c r="MD17" t="s" s="10">
         <v>51</v>
@@ -21095,10 +21094,10 @@
         <v>57</v>
       </c>
       <c r="MB18" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC18" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD18" t="s" s="10">
         <v>51</v>
@@ -22147,10 +22146,10 @@
         <v>57</v>
       </c>
       <c r="MB19" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC19" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD19" t="s" s="10">
         <v>51</v>
@@ -23199,10 +23198,10 @@
         <v>57</v>
       </c>
       <c r="MB20" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC20" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD20" t="s" s="10">
         <v>51</v>
@@ -24251,10 +24250,10 @@
         <v>57</v>
       </c>
       <c r="MB21" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC21" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD21" t="s" s="10">
         <v>51</v>
@@ -25296,7 +25295,7 @@
         <v>113.8</v>
       </c>
       <c r="LX23" t="n" s="10">
-        <v>113.9</v>
+        <v>114.0</v>
       </c>
       <c r="LY23" t="n" s="10">
         <v>114.4</v>
@@ -25307,11 +25306,11 @@
       <c r="MA23" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="MB23" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC23" t="s" s="10">
-        <v>51</v>
+      <c r="MB23" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="MC23" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="MD23" t="s" s="10">
         <v>51</v>
@@ -26348,7 +26347,7 @@
         <v>1.0</v>
       </c>
       <c r="LX24" t="n" s="10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="LY24" t="n" s="10">
         <v>1.9</v>
@@ -26359,11 +26358,11 @@
       <c r="MA24" t="n" s="10">
         <v>3.1</v>
       </c>
-      <c r="MB24" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC24" t="s" s="10">
-        <v>51</v>
+      <c r="MB24" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="MC24" t="n" s="10">
+        <v>2.7</v>
       </c>
       <c r="MD24" t="s" s="10">
         <v>51</v>
@@ -27412,10 +27411,10 @@
         <v>57</v>
       </c>
       <c r="MB25" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC25" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD25" t="s" s="10">
         <v>51</v>
@@ -28464,10 +28463,10 @@
         <v>57</v>
       </c>
       <c r="MB26" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC26" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD26" t="s" s="10">
         <v>51</v>
@@ -29516,10 +29515,10 @@
         <v>57</v>
       </c>
       <c r="MB27" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC27" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD27" t="s" s="10">
         <v>51</v>
@@ -30568,10 +30567,10 @@
         <v>57</v>
       </c>
       <c r="MB28" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC28" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD28" t="s" s="10">
         <v>51</v>
@@ -31613,7 +31612,7 @@
         <v>104.3</v>
       </c>
       <c r="LX30" t="n" s="10">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="LY30" t="n" s="10">
         <v>104.8</v>
@@ -31622,13 +31621,13 @@
         <v>104.9</v>
       </c>
       <c r="MA30" t="n" s="10">
+        <v>104.9</v>
+      </c>
+      <c r="MB30" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="MC30" t="n" s="10">
         <v>105.0</v>
-      </c>
-      <c r="MB30" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC30" t="s" s="10">
-        <v>51</v>
       </c>
       <c r="MD30" t="s" s="10">
         <v>51</v>
@@ -32665,7 +32664,7 @@
         <v>1.5</v>
       </c>
       <c r="LX31" t="n" s="10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="LY31" t="n" s="10">
         <v>1.6</v>
@@ -32674,13 +32673,13 @@
         <v>2.1</v>
       </c>
       <c r="MA31" t="n" s="10">
-        <v>2.3</v>
-      </c>
-      <c r="MB31" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC31" t="s" s="10">
-        <v>51</v>
+        <v>2.2</v>
+      </c>
+      <c r="MB31" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="MC31" t="n" s="10">
+        <v>2.0</v>
       </c>
       <c r="MD31" t="s" s="10">
         <v>51</v>
@@ -33729,10 +33728,10 @@
         <v>57</v>
       </c>
       <c r="MB32" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC32" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD32" t="s" s="10">
         <v>51</v>
@@ -34781,10 +34780,10 @@
         <v>57</v>
       </c>
       <c r="MB33" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC33" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD33" t="s" s="10">
         <v>51</v>
@@ -35833,10 +35832,10 @@
         <v>57</v>
       </c>
       <c r="MB34" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC34" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD34" t="s" s="10">
         <v>51</v>
@@ -36885,10 +36884,10 @@
         <v>57</v>
       </c>
       <c r="MB35" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC35" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD35" t="s" s="10">
         <v>51</v>
@@ -37903,7 +37902,7 @@
         <v>102.7</v>
       </c>
       <c r="LO37" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="LP37" t="n" s="10">
         <v>101.3</v>
@@ -37930,22 +37929,22 @@
         <v>101.9</v>
       </c>
       <c r="LX37" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="LY37" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="LZ37" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="MA37" t="n" s="10">
-        <v>102.4</v>
-      </c>
-      <c r="MB37" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC37" t="s" s="10">
-        <v>51</v>
+        <v>102.5</v>
+      </c>
+      <c r="MB37" t="n" s="10">
+        <v>103.0</v>
+      </c>
+      <c r="MC37" t="n" s="10">
+        <v>103.3</v>
       </c>
       <c r="MD37" t="s" s="10">
         <v>51</v>
@@ -38955,7 +38954,7 @@
         <v>0.0</v>
       </c>
       <c r="LO38" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="LP38" t="n" s="10">
         <v>-1.3</v>
@@ -38982,22 +38981,22 @@
         <v>-0.3</v>
       </c>
       <c r="LX38" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="LY38" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="LZ38" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="MA38" t="n" s="10">
         <v>1.1</v>
       </c>
-      <c r="MB38" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC38" t="s" s="10">
-        <v>51</v>
+      <c r="MB38" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="MC38" t="n" s="10">
+        <v>1.9</v>
       </c>
       <c r="MD38" t="s" s="10">
         <v>51</v>
@@ -40046,10 +40045,10 @@
         <v>57</v>
       </c>
       <c r="MB39" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC39" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD39" t="s" s="10">
         <v>51</v>
@@ -41098,10 +41097,10 @@
         <v>57</v>
       </c>
       <c r="MB40" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC40" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD40" t="s" s="10">
         <v>51</v>
@@ -42150,10 +42149,10 @@
         <v>57</v>
       </c>
       <c r="MB41" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC41" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD41" t="s" s="10">
         <v>51</v>
@@ -43202,10 +43201,10 @@
         <v>57</v>
       </c>
       <c r="MB42" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC42" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD42" t="s" s="10">
         <v>51</v>
@@ -44247,7 +44246,7 @@
         <v>111.5</v>
       </c>
       <c r="LX44" t="n" s="10">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="LY44" t="n" s="10">
         <v>111.9</v>
@@ -44258,11 +44257,11 @@
       <c r="MA44" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="MB44" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC44" t="s" s="10">
-        <v>51</v>
+      <c r="MB44" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="MC44" t="n" s="10">
+        <v>112.4</v>
       </c>
       <c r="MD44" t="s" s="10">
         <v>51</v>
@@ -45310,11 +45309,11 @@
       <c r="MA45" t="n" s="10">
         <v>2.3</v>
       </c>
-      <c r="MB45" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC45" t="s" s="10">
-        <v>51</v>
+      <c r="MB45" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="MC45" t="n" s="10">
+        <v>2.2</v>
       </c>
       <c r="MD45" t="s" s="10">
         <v>51</v>
@@ -46363,10 +46362,10 @@
         <v>57</v>
       </c>
       <c r="MB46" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC46" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD46" t="s" s="10">
         <v>51</v>
@@ -47415,10 +47414,10 @@
         <v>57</v>
       </c>
       <c r="MB47" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC47" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD47" t="s" s="10">
         <v>51</v>
@@ -48467,10 +48466,10 @@
         <v>57</v>
       </c>
       <c r="MB48" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC48" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD48" t="s" s="10">
         <v>51</v>
@@ -49519,10 +49518,10 @@
         <v>57</v>
       </c>
       <c r="MB49" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC49" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD49" t="s" s="10">
         <v>51</v>
@@ -50564,7 +50563,7 @@
         <v>105.5</v>
       </c>
       <c r="LX51" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="LY51" t="n" s="10">
         <v>105.5</v>
@@ -50575,11 +50574,11 @@
       <c r="MA51" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="MB51" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC51" t="s" s="10">
-        <v>51</v>
+      <c r="MB51" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="MC51" t="n" s="10">
+        <v>105.3</v>
       </c>
       <c r="MD51" t="s" s="10">
         <v>51</v>
@@ -51616,7 +51615,7 @@
         <v>0.2</v>
       </c>
       <c r="LX52" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="LY52" t="n" s="10">
         <v>0.4</v>
@@ -51627,11 +51626,11 @@
       <c r="MA52" t="n" s="10">
         <v>1.5</v>
       </c>
-      <c r="MB52" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="MC52" t="s" s="10">
-        <v>51</v>
+      <c r="MB52" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="MC52" t="n" s="10">
+        <v>1.7</v>
       </c>
       <c r="MD52" t="s" s="10">
         <v>51</v>
@@ -52680,10 +52679,10 @@
         <v>57</v>
       </c>
       <c r="MB53" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC53" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD53" t="s" s="10">
         <v>51</v>
@@ -53732,10 +53731,10 @@
         <v>57</v>
       </c>
       <c r="MB54" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC54" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD54" t="s" s="10">
         <v>51</v>
@@ -54784,10 +54783,10 @@
         <v>57</v>
       </c>
       <c r="MB55" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC55" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD55" t="s" s="10">
         <v>51</v>
@@ -55836,10 +55835,10 @@
         <v>57</v>
       </c>
       <c r="MB56" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MC56" t="s" s="10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="MD56" t="s" s="10">
         <v>51</v>
@@ -55955,7 +55954,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:38:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:16:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Persons employed in wholesale trade.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Persons employed in wholesale trade.xlsx
@@ -223,7 +223,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:16:18</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:29:15</t>
   </si>
 </sst>
 </file>
@@ -55954,7 +55954,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:16:27&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:29:24&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>